--- a/mixs-templates/extensions_only/FoodFarmEnvironment.xlsx
+++ b/mixs-templates/extensions_only/FoodFarmEnvironment.xlsx
@@ -1124,12 +1124,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation sqref="AY2:AY1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"erect,prostrate,semi-erect,spreading"</formula1>
     </dataValidation>
     <dataValidation sqref="BG2:BG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"chisel,cutting disc,disc plough,drill,mouldboard,ridge till,strip tillage,tined,zonal tillage"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BJ2:BJ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"autumn [NCIT:C94733],spring [NCIT:C94731],summer [NCIT:C94732],winter [NCIT:C94730]"</formula1>
     </dataValidation>
     <dataValidation sqref="BM2:BM1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"brackish,canal,collected rainwater,ditch,estuary,freshwater,lake,manmade,melt pond,municipal,natural,pond,reservior,river,saline,storage tank,stream,well"</formula1>
